--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -401,1042 +401,1042 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.5600000000000001</v>
+        <v>-1.89</v>
       </c>
       <c r="B2">
-        <v>-0.66</v>
+        <v>-0.4</v>
       </c>
       <c r="C2">
-        <v>-1.15</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
-        <v>-1.8</v>
+        <v>0.92</v>
       </c>
       <c r="E2">
-        <v>-1.1</v>
+        <v>0.65</v>
       </c>
       <c r="F2">
-        <v>-0.08</v>
+        <v>1.45</v>
       </c>
       <c r="G2">
-        <v>-0.13</v>
+        <v>0.03</v>
       </c>
       <c r="H2">
-        <v>0.14</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.23</v>
+        <v>-0.59</v>
       </c>
       <c r="B3">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>-0.21</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>-1.31</v>
+        <v>2.66</v>
       </c>
       <c r="E3">
-        <v>-1.26</v>
+        <v>2.06</v>
       </c>
       <c r="F3">
-        <v>0.45</v>
+        <v>-0.61</v>
       </c>
       <c r="G3">
-        <v>-0.98</v>
+        <v>2.56</v>
       </c>
       <c r="H3">
-        <v>2.13</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.24</v>
+        <v>-1.71</v>
       </c>
       <c r="B4">
-        <v>1.06</v>
+        <v>-0.24</v>
       </c>
       <c r="C4">
-        <v>1.64</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>-0.29</v>
+        <v>-0.18</v>
       </c>
       <c r="E4">
-        <v>0.55</v>
+        <v>-1.8</v>
       </c>
       <c r="F4">
-        <v>1.29</v>
+        <v>0.68</v>
       </c>
       <c r="G4">
-        <v>-0.01</v>
+        <v>1.26</v>
       </c>
       <c r="H4">
-        <v>-0.67</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.46</v>
+        <v>-0.42</v>
       </c>
       <c r="B5">
-        <v>-1.63</v>
+        <v>-0.41</v>
       </c>
       <c r="C5">
-        <v>-1.41</v>
+        <v>-0.96</v>
       </c>
       <c r="D5">
-        <v>-0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5">
-        <v>-0.98</v>
+        <v>0.58</v>
       </c>
       <c r="F5">
-        <v>1.59</v>
+        <v>-0.09</v>
       </c>
       <c r="G5">
-        <v>-1.71</v>
+        <v>-0.53</v>
       </c>
       <c r="H5">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.37</v>
+        <v>0.31</v>
       </c>
       <c r="B6">
+        <v>-1.58</v>
+      </c>
+      <c r="C6">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>3.27</v>
+      </c>
+      <c r="E6">
+        <v>-0.72</v>
+      </c>
+      <c r="F6">
+        <v>-0.49</v>
+      </c>
+      <c r="G6">
         <v>-0.63</v>
       </c>
-      <c r="C6">
-        <v>0.55</v>
-      </c>
-      <c r="D6">
-        <v>-0.6</v>
-      </c>
-      <c r="E6">
-        <v>0.37</v>
-      </c>
-      <c r="F6">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.05</v>
-      </c>
       <c r="H6">
-        <v>0.74</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.5</v>
+        <v>1.7</v>
       </c>
       <c r="B7">
-        <v>-0.28</v>
+        <v>-0.8</v>
       </c>
       <c r="C7">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="D7">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E7">
-        <v>0.78</v>
+        <v>-0.63</v>
       </c>
       <c r="F7">
-        <v>-1.28</v>
+        <v>1.41</v>
       </c>
       <c r="G7">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="H7">
-        <v>0.91</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.36</v>
+        <v>-0.44</v>
       </c>
       <c r="B8">
-        <v>-0.39</v>
+        <v>-1.1</v>
       </c>
       <c r="C8">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E8">
-        <v>0.33</v>
+        <v>-1.82</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>-0.22</v>
       </c>
       <c r="G8">
-        <v>0.24</v>
+        <v>1.01</v>
       </c>
       <c r="H8">
-        <v>-1.52</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-2.66</v>
+        <v>-1.2</v>
       </c>
       <c r="B9">
-        <v>-0.92</v>
+        <v>0.31</v>
       </c>
       <c r="C9">
-        <v>0.65</v>
+        <v>-1.45</v>
       </c>
       <c r="D9">
-        <v>0.38</v>
+        <v>-0.97</v>
       </c>
       <c r="E9">
-        <v>-1.12</v>
+        <v>-0.26</v>
       </c>
       <c r="F9">
-        <v>0.62</v>
+        <v>-0.21</v>
       </c>
       <c r="G9">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="H9">
-        <v>-0.9</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-1.19</v>
+        <v>-0.31</v>
       </c>
       <c r="B10">
-        <v>1.19</v>
+        <v>0.34</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="D10">
-        <v>-0.46</v>
+        <v>-0.55</v>
       </c>
       <c r="E10">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="F10">
-        <v>-0.06</v>
+        <v>0.7</v>
       </c>
       <c r="G10">
-        <v>0.43</v>
+        <v>-0.6</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-1.15</v>
+        <v>0.62</v>
       </c>
       <c r="B11">
+        <v>1.54</v>
+      </c>
+      <c r="C11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D11">
+        <v>-1.69</v>
+      </c>
+      <c r="E11">
+        <v>-1.43</v>
+      </c>
+      <c r="F11">
         <v>0.92</v>
       </c>
-      <c r="C11">
-        <v>0.43</v>
-      </c>
-      <c r="D11">
-        <v>1.71</v>
-      </c>
-      <c r="E11">
-        <v>-1.29</v>
-      </c>
-      <c r="F11">
-        <v>0.17</v>
-      </c>
       <c r="G11">
-        <v>-0.1</v>
+        <v>0.54</v>
       </c>
       <c r="H11">
-        <v>0.43</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.58</v>
+        <v>0.18</v>
       </c>
       <c r="B12">
-        <v>0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="C12">
-        <v>-0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D12">
-        <v>0.24</v>
+        <v>-1.57</v>
       </c>
       <c r="E12">
-        <v>-0.89</v>
+        <v>1.94</v>
       </c>
       <c r="F12">
-        <v>0.62</v>
+        <v>-0.92</v>
       </c>
       <c r="G12">
-        <v>0.24</v>
+        <v>-0.08</v>
       </c>
       <c r="H12">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.58</v>
+        <v>1.32</v>
       </c>
       <c r="B13">
-        <v>0.58</v>
+        <v>0.95</v>
       </c>
       <c r="C13">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="D13">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="E13">
-        <v>-0.96</v>
+        <v>-0.76</v>
       </c>
       <c r="F13">
-        <v>-0.66</v>
+        <v>1.15</v>
       </c>
       <c r="G13">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="H13">
-        <v>-0.33</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>-0.3</v>
+      </c>
+      <c r="B14">
+        <v>-0.48</v>
+      </c>
+      <c r="C14">
+        <v>-0.17</v>
+      </c>
+      <c r="D14">
         <v>0.32</v>
       </c>
-      <c r="B14">
-        <v>-1.87</v>
-      </c>
-      <c r="C14">
-        <v>1.14</v>
-      </c>
-      <c r="D14">
-        <v>-0.26</v>
-      </c>
       <c r="E14">
-        <v>-0.33</v>
+        <v>-2.28</v>
       </c>
       <c r="F14">
-        <v>-0.16</v>
+        <v>-0.64</v>
       </c>
       <c r="G14">
-        <v>-0.65</v>
+        <v>-0.85</v>
       </c>
       <c r="H14">
-        <v>-0.41</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.55</v>
+        <v>-1.65</v>
       </c>
       <c r="B15">
-        <v>-1.17</v>
+        <v>-1.51</v>
       </c>
       <c r="C15">
-        <v>-0.19</v>
+        <v>-1.05</v>
       </c>
       <c r="D15">
-        <v>-1.84</v>
+        <v>0.04</v>
       </c>
       <c r="E15">
-        <v>0.59</v>
+        <v>-0.11</v>
       </c>
       <c r="F15">
-        <v>-0.27</v>
+        <v>-0.89</v>
       </c>
       <c r="G15">
-        <v>1.21</v>
+        <v>0.03</v>
       </c>
       <c r="H15">
-        <v>-0.53</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.43</v>
+        <v>0.95</v>
       </c>
       <c r="B16">
-        <v>-0.22</v>
+        <v>0.43</v>
       </c>
       <c r="C16">
-        <v>-0.27</v>
+        <v>0.73</v>
       </c>
       <c r="D16">
-        <v>-2.35</v>
+        <v>-0.39</v>
       </c>
       <c r="E16">
-        <v>0.21</v>
+        <v>2.35</v>
       </c>
       <c r="F16">
-        <v>-0.35</v>
+        <v>-2.33</v>
       </c>
       <c r="G16">
-        <v>-1.73</v>
+        <v>-1.03</v>
       </c>
       <c r="H16">
-        <v>1.37</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>-1.11</v>
+      </c>
+      <c r="B17">
+        <v>-0.52</v>
+      </c>
+      <c r="C17">
+        <v>0.26</v>
+      </c>
+      <c r="D17">
+        <v>-1.82</v>
+      </c>
+      <c r="E17">
         <v>1.6</v>
       </c>
-      <c r="B17">
-        <v>0.74</v>
-      </c>
-      <c r="C17">
-        <v>-0.31</v>
-      </c>
-      <c r="D17">
-        <v>-0.59</v>
-      </c>
-      <c r="E17">
-        <v>0.76</v>
-      </c>
       <c r="F17">
-        <v>0.67</v>
+        <v>-0.15</v>
       </c>
       <c r="G17">
-        <v>0.74</v>
+        <v>-0.98</v>
       </c>
       <c r="H17">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="B18">
-        <v>-1.73</v>
+        <v>-0.83</v>
       </c>
       <c r="C18">
-        <v>-0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D18">
-        <v>-0.36</v>
+        <v>0.66</v>
       </c>
       <c r="E18">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="F18">
-        <v>-0.93</v>
+        <v>0.32</v>
       </c>
       <c r="G18">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1.16</v>
+        <v>0.51</v>
       </c>
       <c r="B19">
-        <v>0.48</v>
+        <v>-0.76</v>
       </c>
       <c r="C19">
+        <v>1.04</v>
+      </c>
+      <c r="D19">
         <v>0.46</v>
       </c>
-      <c r="D19">
-        <v>-0.27</v>
-      </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0.79</v>
       </c>
       <c r="F19">
-        <v>-0.37</v>
+        <v>-0.71</v>
       </c>
       <c r="G19">
-        <v>0.44</v>
+        <v>-0.23</v>
       </c>
       <c r="H19">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1.03</v>
+        <v>0.37</v>
       </c>
       <c r="B20">
-        <v>-1.68</v>
+        <v>1.09</v>
       </c>
       <c r="C20">
-        <v>1.34</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.22</v>
+        <v>1.62</v>
       </c>
       <c r="E20">
-        <v>-0.22</v>
+        <v>0.46</v>
       </c>
       <c r="F20">
-        <v>-1.17</v>
+        <v>1.24</v>
       </c>
       <c r="G20">
-        <v>0.89</v>
+        <v>-0.5</v>
       </c>
       <c r="H20">
-        <v>0.52</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.58</v>
+        <v>1.72</v>
       </c>
       <c r="B21">
-        <v>0.8100000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="C21">
-        <v>0.05</v>
+        <v>-1.63</v>
       </c>
       <c r="D21">
-        <v>-0.31</v>
+        <v>-1.86</v>
       </c>
       <c r="E21">
-        <v>-1.06</v>
+        <v>-0.44</v>
       </c>
       <c r="F21">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="G21">
-        <v>-0.65</v>
+        <v>1.55</v>
       </c>
       <c r="H21">
-        <v>-1.17</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="B22">
-        <v>-0.68</v>
+        <v>1.01</v>
       </c>
       <c r="C22">
+        <v>0.12</v>
+      </c>
+      <c r="D22">
+        <v>-0.29</v>
+      </c>
+      <c r="E22">
         <v>-1.51</v>
       </c>
-      <c r="D22">
-        <v>1.1</v>
-      </c>
-      <c r="E22">
-        <v>1.34</v>
-      </c>
       <c r="F22">
-        <v>0.63</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="H22">
-        <v>0.24</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.17</v>
+        <v>-1.31</v>
       </c>
       <c r="B23">
-        <v>-0.13</v>
+        <v>-0.27</v>
       </c>
       <c r="C23">
-        <v>0.41</v>
+        <v>-1.64</v>
       </c>
       <c r="D23">
-        <v>-0.21</v>
+        <v>1.75</v>
       </c>
       <c r="E23">
-        <v>-0.25</v>
+        <v>-2.22</v>
       </c>
       <c r="F23">
-        <v>-0.29</v>
+        <v>1.81</v>
       </c>
       <c r="G23">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="H23">
-        <v>-1.02</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="B24">
-        <v>-1.13</v>
+        <v>-1.31</v>
       </c>
       <c r="C24">
-        <v>0.84</v>
+        <v>-0.53</v>
       </c>
       <c r="D24">
-        <v>-0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E24">
-        <v>0.38</v>
+        <v>-1.18</v>
       </c>
       <c r="F24">
-        <v>-0.48</v>
+        <v>-1.5</v>
       </c>
       <c r="G24">
-        <v>0.09</v>
+        <v>-0.98</v>
       </c>
       <c r="H24">
-        <v>-1.42</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.51</v>
+        <v>-0.23</v>
       </c>
       <c r="B25">
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
       <c r="C25">
-        <v>-0.26</v>
+        <v>0.95</v>
       </c>
       <c r="D25">
-        <v>-0.68</v>
+        <v>1.38</v>
       </c>
       <c r="E25">
-        <v>-0.04</v>
+        <v>-1.78</v>
       </c>
       <c r="F25">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="G25">
-        <v>-1.79</v>
+        <v>-0.25</v>
       </c>
       <c r="H25">
-        <v>-0.41</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-1.44</v>
+        <v>0.64</v>
       </c>
       <c r="B26">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="C26">
-        <v>0.93</v>
+        <v>-1.72</v>
       </c>
       <c r="D26">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
       <c r="E26">
-        <v>-1.01</v>
+        <v>-0.99</v>
       </c>
       <c r="F26">
-        <v>0.16</v>
+        <v>0.85</v>
       </c>
       <c r="G26">
-        <v>0.52</v>
+        <v>-1.4</v>
       </c>
       <c r="H26">
-        <v>-1.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.08</v>
+        <v>1.63</v>
       </c>
       <c r="B27">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="C27">
-        <v>-0.19</v>
+        <v>0.11</v>
       </c>
       <c r="D27">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="F27">
-        <v>2.99</v>
+        <v>-1</v>
       </c>
       <c r="G27">
-        <v>0.27</v>
+        <v>1.44</v>
       </c>
       <c r="H27">
-        <v>-1.01</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.97</v>
+        <v>-1.81</v>
       </c>
       <c r="B28">
-        <v>1.94</v>
+        <v>0.31</v>
       </c>
       <c r="C28">
-        <v>-1.26</v>
+        <v>-0.61</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>0.91</v>
       </c>
       <c r="E28">
-        <v>-0.96</v>
+        <v>-0.88</v>
       </c>
       <c r="F28">
-        <v>1.82</v>
+        <v>-0.26</v>
       </c>
       <c r="G28">
-        <v>1.3</v>
+        <v>-0.98</v>
       </c>
       <c r="H28">
-        <v>0.9</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.89</v>
+        <v>-0.21</v>
       </c>
       <c r="B29">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="C29">
-        <v>0.61</v>
+        <v>-0.3</v>
       </c>
       <c r="D29">
-        <v>0.16</v>
+        <v>-1.8</v>
       </c>
       <c r="E29">
-        <v>0.57</v>
+        <v>-1.54</v>
       </c>
       <c r="F29">
-        <v>0.71</v>
+        <v>-0.06</v>
       </c>
       <c r="G29">
-        <v>0.44</v>
+        <v>1.47</v>
       </c>
       <c r="H29">
-        <v>-0.7</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-1.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B30">
-        <v>0.51</v>
+        <v>-0.84</v>
       </c>
       <c r="C30">
-        <v>-0.39</v>
+        <v>0.98</v>
       </c>
       <c r="D30">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="E30">
-        <v>0.28</v>
+        <v>-1.04</v>
       </c>
       <c r="F30">
-        <v>-0.7</v>
+        <v>-0.45</v>
       </c>
       <c r="G30">
-        <v>-1.94</v>
+        <v>-0.99</v>
       </c>
       <c r="H30">
-        <v>0.65</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2.5</v>
+        <v>0.55</v>
       </c>
       <c r="B31">
-        <v>-1.38</v>
+        <v>0.44</v>
       </c>
       <c r="C31">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="D31">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="E31">
-        <v>1.01</v>
+        <v>-1.72</v>
       </c>
       <c r="F31">
-        <v>-0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G31">
-        <v>0.47</v>
+        <v>-0.09</v>
       </c>
       <c r="H31">
-        <v>1.05</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>-0.7</v>
+      </c>
+      <c r="B32">
+        <v>0.06</v>
+      </c>
+      <c r="C32">
+        <v>1.29</v>
+      </c>
+      <c r="D32">
+        <v>1.34</v>
+      </c>
+      <c r="E32">
+        <v>0.8</v>
+      </c>
+      <c r="F32">
         <v>-0.15</v>
       </c>
-      <c r="B32">
-        <v>1.16</v>
-      </c>
-      <c r="C32">
-        <v>0.11</v>
-      </c>
-      <c r="D32">
-        <v>0.02</v>
-      </c>
-      <c r="E32">
-        <v>-0.93</v>
-      </c>
-      <c r="F32">
-        <v>0.48</v>
-      </c>
       <c r="G32">
-        <v>-0.04</v>
+        <v>-2.88</v>
       </c>
       <c r="H32">
-        <v>0.82</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.23</v>
+        <v>0.39</v>
       </c>
       <c r="B33">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C33">
-        <v>0.76</v>
+        <v>-1.13</v>
       </c>
       <c r="D33">
-        <v>0.14</v>
+        <v>0.77</v>
       </c>
       <c r="E33">
-        <v>1.24</v>
+        <v>-1.5</v>
       </c>
       <c r="F33">
-        <v>-0</v>
+        <v>-0.83</v>
       </c>
       <c r="G33">
-        <v>-0.43</v>
+        <v>-0.25</v>
       </c>
       <c r="H33">
-        <v>0.29</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.35</v>
+        <v>0.38</v>
       </c>
       <c r="B34">
-        <v>-1.75</v>
+        <v>-0.2</v>
       </c>
       <c r="C34">
-        <v>-1.04</v>
+        <v>-0.87</v>
       </c>
       <c r="D34">
-        <v>-0.39</v>
+        <v>0.19</v>
       </c>
       <c r="E34">
-        <v>-0.88</v>
+        <v>-0.15</v>
       </c>
       <c r="F34">
-        <v>-0.7</v>
+        <v>0.76</v>
       </c>
       <c r="G34">
-        <v>-0.73</v>
+        <v>0.01</v>
       </c>
       <c r="H34">
-        <v>1.02</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.48</v>
+        <v>-0.01</v>
       </c>
       <c r="B35">
-        <v>-0.18</v>
+        <v>-1.16</v>
       </c>
       <c r="C35">
+        <v>-0.75</v>
+      </c>
+      <c r="D35">
+        <v>1.14</v>
+      </c>
+      <c r="E35">
         <v>0.58</v>
       </c>
-      <c r="D35">
-        <v>0.31</v>
-      </c>
-      <c r="E35">
-        <v>1.2</v>
-      </c>
       <c r="F35">
-        <v>0.55</v>
+        <v>-0.58</v>
       </c>
       <c r="G35">
-        <v>0.6899999999999999</v>
+        <v>-1.92</v>
       </c>
       <c r="H35">
-        <v>-1.2</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>-0.12</v>
+      </c>
+      <c r="B36">
+        <v>-0.59</v>
+      </c>
+      <c r="C36">
+        <v>-0.13</v>
+      </c>
+      <c r="D36">
         <v>0.01</v>
       </c>
-      <c r="B36">
-        <v>-1.36</v>
-      </c>
-      <c r="C36">
-        <v>0.12</v>
-      </c>
-      <c r="D36">
-        <v>-0.6899999999999999</v>
-      </c>
       <c r="E36">
-        <v>-0.31</v>
+        <v>1.2</v>
       </c>
       <c r="F36">
-        <v>-0.66</v>
+        <v>-0.63</v>
       </c>
       <c r="G36">
-        <v>-0.1</v>
+        <v>-0.29</v>
       </c>
       <c r="H36">
-        <v>0.76</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.15</v>
+        <v>1.47</v>
       </c>
       <c r="B37">
-        <v>-1.59</v>
+        <v>0.77</v>
       </c>
       <c r="C37">
-        <v>1.57</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>1.01</v>
+        <v>-1.11</v>
       </c>
       <c r="E37">
-        <v>0.14</v>
+        <v>1.89</v>
       </c>
       <c r="F37">
-        <v>1.78</v>
+        <v>0.48</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>-0.35</v>
       </c>
       <c r="H37">
-        <v>0.6899999999999999</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.3</v>
+        <v>0.67</v>
       </c>
       <c r="B38">
-        <v>-1.21</v>
+        <v>0.04</v>
       </c>
       <c r="C38">
-        <v>1.22</v>
+        <v>-0.82</v>
       </c>
       <c r="D38">
-        <v>1.85</v>
+        <v>-0.03</v>
       </c>
       <c r="E38">
-        <v>-0.5600000000000001</v>
+        <v>-1.76</v>
       </c>
       <c r="F38">
-        <v>-0.95</v>
+        <v>1.7</v>
       </c>
       <c r="G38">
-        <v>0.02</v>
+        <v>-1.84</v>
       </c>
       <c r="H38">
-        <v>-0.3</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-1.05</v>
+        <v>1.96</v>
       </c>
       <c r="B39">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
       <c r="C39">
-        <v>-0.05</v>
+        <v>-0.97</v>
       </c>
       <c r="D39">
-        <v>-0.73</v>
+        <v>-0.16</v>
       </c>
       <c r="E39">
-        <v>1.69</v>
+        <v>0.92</v>
       </c>
       <c r="F39">
-        <v>0.68</v>
+        <v>-1.76</v>
       </c>
       <c r="G39">
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="H39">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-2.58</v>
+        <v>-0.27</v>
       </c>
       <c r="B40">
-        <v>-0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="C40">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D40">
-        <v>-1.3</v>
+        <v>0.37</v>
       </c>
       <c r="E40">
-        <v>0.35</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F40">
-        <v>-0.53</v>
+        <v>0.2</v>
       </c>
       <c r="G40">
-        <v>-0.25</v>
+        <v>-1.21</v>
       </c>
       <c r="H40">
-        <v>-0.79</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.45</v>
+        <v>-1.24</v>
       </c>
       <c r="B41">
-        <v>-1.34</v>
+        <v>1.4</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="D41">
-        <v>0.57</v>
+        <v>-0.38</v>
       </c>
       <c r="E41">
-        <v>-0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="F41">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="G41">
-        <v>-1.32</v>
+        <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>0.8100000000000001</v>
+        <v>-1.09</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.8100000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="B2">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="C2">
-        <v>-0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2">
-        <v>-0.5600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.73</v>
+        <v>-0.27</v>
       </c>
       <c r="B3">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="C3">
-        <v>-0.6899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>2.34</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1.5</v>
+        <v>-0.87</v>
       </c>
       <c r="B4">
-        <v>-1.05</v>
+        <v>-0.24</v>
       </c>
       <c r="C4">
-        <v>0.31</v>
+        <v>-0.63</v>
       </c>
       <c r="D4">
-        <v>-0.28</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.01</v>
+        <v>-1.75</v>
       </c>
       <c r="B2">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="C2">
-        <v>0.5600000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.27</v>
+        <v>0.45</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>-0.79</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>3.16</v>
       </c>
       <c r="D3">
-        <v>-0.04</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.87</v>
+        <v>0.52</v>
       </c>
       <c r="B4">
-        <v>-0.24</v>
+        <v>1.49</v>
       </c>
       <c r="C4">
-        <v>-0.63</v>
+        <v>-0.17</v>
       </c>
       <c r="D4">
-        <v>-0.8100000000000001</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-1.75</v>
+        <v>-0.59</v>
       </c>
       <c r="B2">
-        <v>0.48</v>
+        <v>1.28</v>
       </c>
       <c r="C2">
-        <v>-0.23</v>
+        <v>-0.3</v>
       </c>
       <c r="D2">
-        <v>-0.88</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.45</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="B3">
-        <v>-0.79</v>
+        <v>-0.75</v>
       </c>
       <c r="C3">
-        <v>3.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.24</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1.49</v>
+        <v>-1.02</v>
       </c>
       <c r="C4">
-        <v>-0.17</v>
+        <v>0.46</v>
       </c>
       <c r="D4">
-        <v>0.41</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.59</v>
+        <v>-0.55</v>
       </c>
       <c r="B2">
-        <v>1.28</v>
+        <v>-1.42</v>
       </c>
       <c r="C2">
-        <v>-0.3</v>
+        <v>-0.09</v>
       </c>
       <c r="D2">
-        <v>1.07</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>-0.37</v>
+      </c>
+      <c r="B3">
+        <v>-0.85</v>
+      </c>
+      <c r="C3">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="B3">
-        <v>-0.75</v>
-      </c>
-      <c r="C3">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="D3">
-        <v>1.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
       <c r="B4">
-        <v>-1.02</v>
+        <v>-0.86</v>
       </c>
       <c r="C4">
-        <v>0.46</v>
+        <v>-0.26</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>-1.65</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.55</v>
+        <v>-1.45</v>
       </c>
       <c r="B2">
-        <v>-1.42</v>
+        <v>-0.76</v>
       </c>
       <c r="C2">
-        <v>-0.09</v>
+        <v>0.32</v>
       </c>
       <c r="D2">
-        <v>-0.01</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.37</v>
+        <v>1.85</v>
       </c>
       <c r="B3">
-        <v>-0.85</v>
+        <v>-0.96</v>
       </c>
       <c r="C3">
-        <v>-0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="D3">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.48</v>
+        <v>-0.62</v>
       </c>
       <c r="B4">
-        <v>-0.86</v>
+        <v>-0.31</v>
       </c>
       <c r="C4">
-        <v>-0.26</v>
+        <v>0.13</v>
       </c>
       <c r="D4">
-        <v>-1.65</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-1.45</v>
+        <v>1.17</v>
       </c>
       <c r="B2">
-        <v>-0.76</v>
+        <v>0.38</v>
       </c>
       <c r="C2">
-        <v>0.32</v>
+        <v>1.26</v>
       </c>
       <c r="D2">
-        <v>-0.86</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.85</v>
+        <v>-0.41</v>
       </c>
       <c r="B3">
-        <v>-0.96</v>
+        <v>-1.22</v>
       </c>
       <c r="C3">
-        <v>0.43</v>
+        <v>-0.8</v>
       </c>
       <c r="D3">
-        <v>0.16</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.62</v>
+        <v>0.05</v>
       </c>
       <c r="B4">
-        <v>-0.31</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>0.13</v>
+        <v>-0.51</v>
       </c>
       <c r="D4">
-        <v>-0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="B2">
-        <v>0.38</v>
+        <v>-0.62</v>
       </c>
       <c r="C2">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
       <c r="D2">
-        <v>0.82</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.41</v>
+        <v>-0.15</v>
       </c>
       <c r="B3">
-        <v>-1.22</v>
+        <v>-0.65</v>
       </c>
       <c r="C3">
-        <v>-0.8</v>
+        <v>0.37</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="B4">
-        <v>0.12</v>
+        <v>0.83</v>
       </c>
       <c r="C4">
-        <v>-0.51</v>
+        <v>0.57</v>
       </c>
       <c r="D4">
-        <v>-0.07000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="B2">
-        <v>-0.62</v>
+        <v>-1.65</v>
       </c>
       <c r="C2">
-        <v>0.96</v>
+        <v>1.73</v>
       </c>
       <c r="D2">
-        <v>1.14</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.15</v>
+        <v>1.3</v>
       </c>
       <c r="B3">
-        <v>-0.65</v>
+        <v>0.55</v>
       </c>
       <c r="C3">
-        <v>0.37</v>
+        <v>1.46</v>
       </c>
       <c r="D3">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.02</v>
+        <v>0.95</v>
       </c>
       <c r="B4">
-        <v>0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="C4">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="B2">
-        <v>-1.65</v>
+        <v>-0.36</v>
       </c>
       <c r="C2">
-        <v>1.73</v>
+        <v>-1.17</v>
       </c>
       <c r="D2">
-        <v>-0.78</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="B3">
         <v>0.55</v>
       </c>
       <c r="C3">
-        <v>1.46</v>
+        <v>-1.08</v>
       </c>
       <c r="D3">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.95</v>
+        <v>-1.31</v>
       </c>
       <c r="B4">
-        <v>-0.82</v>
+        <v>-0.78</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="D4">
-        <v>0.89</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="B2">
-        <v>-0.36</v>
+        <v>0.63</v>
       </c>
       <c r="C2">
-        <v>-1.17</v>
+        <v>1.31</v>
       </c>
       <c r="D2">
-        <v>-0.65</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.54</v>
+        <v>-0.11</v>
       </c>
       <c r="B3">
-        <v>0.55</v>
+        <v>1.39</v>
       </c>
       <c r="C3">
-        <v>-1.08</v>
+        <v>0.51</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1.31</v>
+        <v>0.9</v>
       </c>
       <c r="B4">
-        <v>-0.78</v>
+        <v>0.76</v>
       </c>
       <c r="C4">
-        <v>-0.15</v>
+        <v>0.44</v>
       </c>
       <c r="D4">
-        <v>0.49</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.92</v>
+        <v>0.98</v>
       </c>
       <c r="B2">
-        <v>0.63</v>
+        <v>-0.58</v>
       </c>
       <c r="C2">
-        <v>1.31</v>
+        <v>-0.5</v>
       </c>
       <c r="D2">
-        <v>0.29</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.11</v>
+        <v>-0.16</v>
       </c>
       <c r="B3">
-        <v>1.39</v>
+        <v>-0.72</v>
       </c>
       <c r="C3">
-        <v>0.51</v>
+        <v>-0.78</v>
       </c>
       <c r="D3">
-        <v>-0.11</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>-0.75</v>
       </c>
       <c r="C4">
-        <v>0.44</v>
+        <v>1.51</v>
       </c>
       <c r="D4">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="B2">
-        <v>-0.58</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>-0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2">
-        <v>-0.87</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.16</v>
+        <v>-1.4</v>
       </c>
       <c r="B3">
-        <v>-0.72</v>
+        <v>1.09</v>
       </c>
       <c r="C3">
-        <v>-0.78</v>
+        <v>-1.61</v>
       </c>
       <c r="D3">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.1</v>
+        <v>0.62</v>
       </c>
       <c r="B4">
-        <v>-0.75</v>
+        <v>2.19</v>
       </c>
       <c r="C4">
-        <v>1.51</v>
+        <v>-1.26</v>
       </c>
       <c r="D4">
-        <v>1.07</v>
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>-0.17</v>
       </c>
       <c r="C2">
-        <v>0.6899999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="D2">
-        <v>-0.41</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-1.4</v>
+        <v>-0</v>
       </c>
       <c r="B3">
-        <v>1.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C3">
-        <v>-1.61</v>
+        <v>-0.43</v>
       </c>
       <c r="D3">
-        <v>1.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.62</v>
+        <v>-1.18</v>
       </c>
       <c r="B4">
-        <v>2.19</v>
+        <v>1.35</v>
       </c>
       <c r="C4">
-        <v>-1.26</v>
+        <v>-0.25</v>
       </c>
       <c r="D4">
-        <v>-0.14</v>
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/book/veri3.xlsx
+++ b/book/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.01</v>
+        <v>0.39</v>
       </c>
       <c r="B2">
-        <v>-0.17</v>
+        <v>0.34</v>
       </c>
       <c r="C2">
-        <v>0.41</v>
+        <v>-0.02</v>
       </c>
       <c r="D2">
-        <v>-0.97</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0</v>
+        <v>-0.25</v>
       </c>
       <c r="B3">
-        <v>0.8100000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="C3">
-        <v>-0.43</v>
+        <v>0.82</v>
       </c>
       <c r="D3">
-        <v>0.44</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1.18</v>
+        <v>-0.18</v>
       </c>
       <c r="B4">
-        <v>1.35</v>
+        <v>-2.06</v>
       </c>
       <c r="C4">
-        <v>-0.25</v>
+        <v>1.9</v>
       </c>
       <c r="D4">
-        <v>1.07</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
